--- a/Recycling/Met_rec/metrec_Avg_full_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>556760.2186232489</v>
+        <v>556760.218623249</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1496659.5531329</v>
+        <v>1496659.553132901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3038611.237094067</v>
+        <v>3038611.237094068</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3326325.209350232</v>
+        <v>3326325.209350231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3483577.984832575</v>
+        <v>3483577.984832576</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7131,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3544367.360995422</v>
+        <v>3544367.360995423</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_full_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_full_Avg.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4301827.291839263</v>
+        <v>4301827.291839264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5.278624507419369</v>
+        <v>5.27862450741937</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>519.7364166337974</v>
+        <v>519.7364166337975</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7473.124927614336</v>
+        <v>7473.124927614337</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6340.076787816051</v>
+        <v>6340.07678781605</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4416,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4146.590797729143</v>
+        <v>4146.590797729144</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>79294.68787896969</v>
+        <v>79294.68787896966</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6577.207019256379</v>
+        <v>6577.207019256381</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>88510.36799795319</v>
+        <v>88510.3679979532</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>72967.26161834401</v>
+        <v>72967.26161834404</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7156,7 +7156,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>385211.7290793708</v>
+        <v>385211.7290793709</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7972,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>808532.1965902986</v>
+        <v>808532.1965902988</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>334134.3943608426</v>
+        <v>334134.3943608425</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>822551.020654725</v>
+        <v>822551.0206547247</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8788,7 +8788,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2086803.861377087</v>
+        <v>2086803.861377088</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>661763.9152528947</v>
+        <v>661763.9152528949</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8992,7 +8992,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2644542.782797364</v>
+        <v>2644542.782797365</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10828,7 +10828,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9549752.370090261</v>
+        <v>9549752.370090263</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4014430.711529653</v>
+        <v>4014430.711529654</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11192,7 +11192,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4053721.734965975</v>
+        <v>4053721.734965976</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7082562.577766304</v>
+        <v>7082562.577766302</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11600,7 +11600,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3957608.04455082</v>
+        <v>3957608.044550821</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12008,7 +12008,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3341682.922494059</v>
+        <v>3341682.922494058</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5076763.825971408</v>
+        <v>5076763.825971409</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12708,7 +12708,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1631144.887005946</v>
+        <v>1631144.887005945</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12984,7 +12984,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3492400.976483089</v>
+        <v>3492400.97648309</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13072,7 +13072,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8155162.78718596</v>
+        <v>8155162.787185962</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1240078.538884249</v>
+        <v>1240078.538884248</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1049470.679085646</v>
+        <v>1049470.679085647</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7172897.186966673</v>
+        <v>7172897.186966671</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1466828.715197975</v>
+        <v>1466828.715197974</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15564,7 +15564,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2513275.890455863</v>
+        <v>2513275.890455862</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15840,7 +15840,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5668881.579376716</v>
+        <v>5668881.579376717</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3864699.956488631</v>
+        <v>3864699.95648863</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -16380,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3111946.976746217</v>
+        <v>3111946.976746218</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -16904,7 +16904,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4079929.869773808</v>
+        <v>4079929.869773809</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5840675.253281278</v>
+        <v>5840675.253281279</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17268,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5476414.203797312</v>
+        <v>5476414.203797313</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19396,7 +19396,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>16134093.2152694</v>
+        <v>16134093.21526941</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3524002.999356459</v>
+        <v>3524002.99935646</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>4462665.915937819</v>
+        <v>4462665.915937818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>18593461.1654342</v>
+        <v>18593461.16543421</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2597401.033040441</v>
+        <v>2597401.033040442</v>
       </c>
     </row>
     <row r="17" spans="1:4">
